--- a/RQ2percentage.xlsx
+++ b/RQ2percentage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ly/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ly/Desktop/TACTICAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FCF5B7-1208-3C4D-B04F-C6371C5702B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854FE44A-6031-F640-A791-7B5A3737E2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23120" yWindow="3020" windowWidth="48080" windowHeight="33840" xr2:uid="{371FBE6B-B9D8-D944-9AD5-EE8A9416810B}"/>
+    <workbookView xWindow="23120" yWindow="3020" windowWidth="48080" windowHeight="33840" activeTab="1" xr2:uid="{371FBE6B-B9D8-D944-9AD5-EE8A9416810B}"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="11" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="230">
   <si>
     <t>ACC#1_spec1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1354,7 +1354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3836E44-4008-3441-96D7-08E2712A8C34}">
   <dimension ref="A1:AK187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="154" workbookViewId="0">
+    <sheetView topLeftCell="A120" zoomScale="154" workbookViewId="0">
       <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
@@ -9299,8 +9299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37DC2BE-3853-D84B-90F3-447E0C815642}">
   <dimension ref="A1:AK187"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" zoomScale="119" workbookViewId="0">
-      <selection activeCell="C155" sqref="C155"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="119" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12657,9 +12657,6 @@
       <c r="K143" s="3"/>
     </row>
     <row r="154" spans="1:37">
-      <c r="A154" t="s">
-        <v>17</v>
-      </c>
       <c r="B154" s="6" t="s">
         <v>14</v>
       </c>
@@ -15991,7 +15988,7 @@
   <dimension ref="A1:AK187"/>
   <sheetViews>
     <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156:A167"/>
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19348,9 +19345,6 @@
       <c r="K143" s="3"/>
     </row>
     <row r="154" spans="1:37">
-      <c r="A154" t="s">
-        <v>17</v>
-      </c>
       <c r="B154" s="6" t="s">
         <v>14</v>
       </c>
@@ -22682,7 +22676,7 @@
   <dimension ref="A1:AK187"/>
   <sheetViews>
     <sheetView topLeftCell="A108" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156:A167"/>
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -26039,9 +26033,6 @@
       <c r="K143" s="3"/>
     </row>
     <row r="154" spans="1:37">
-      <c r="A154" t="s">
-        <v>17</v>
-      </c>
       <c r="B154" s="6" t="s">
         <v>14</v>
       </c>
@@ -29374,7 +29365,7 @@
   <dimension ref="A1:AK187"/>
   <sheetViews>
     <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156:A167"/>
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -32731,9 +32722,6 @@
       <c r="K143" s="3"/>
     </row>
     <row r="154" spans="1:37">
-      <c r="A154" t="s">
-        <v>17</v>
-      </c>
       <c r="B154" s="6" t="s">
         <v>14</v>
       </c>
@@ -36065,7 +36053,7 @@
   <dimension ref="A1:AK187"/>
   <sheetViews>
     <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156:A167"/>
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -39422,9 +39410,6 @@
       <c r="K143" s="3"/>
     </row>
     <row r="154" spans="1:37">
-      <c r="A154" t="s">
-        <v>17</v>
-      </c>
       <c r="B154" s="6" t="s">
         <v>14</v>
       </c>
@@ -42756,7 +42741,7 @@
   <dimension ref="A1:AK187"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156:A167"/>
+      <selection activeCell="H151" sqref="H151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -46113,9 +46098,6 @@
       <c r="K143" s="3"/>
     </row>
     <row r="154" spans="1:37">
-      <c r="A154" t="s">
-        <v>17</v>
-      </c>
       <c r="B154" s="6" t="s">
         <v>14</v>
       </c>
